--- a/spreadsheet/macrofree/waf.en.xlsx
+++ b/spreadsheet/macrofree/waf.en.xlsx
@@ -13246,7 +13246,7 @@
       </c>
       <c r="D249" s="18" t="inlineStr">
         <is>
-          <t>Do not use AKS HTTP Routing Add-On</t>
+          <t>Do not use AKS HTTP Routing Add-On, use instead the managed NGINX ingress with the application routing add-on.</t>
         </is>
       </c>
       <c r="E249" s="18" t="n"/>
@@ -13322,11 +13322,7 @@
         </is>
       </c>
       <c r="J250" s="13" t="n"/>
-      <c r="K250" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K250" s="19" t="n"/>
       <c r="L250" s="19" t="inlineStr">
         <is>
           <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
